--- a/import_fld/field_import.xlsx
+++ b/import_fld/field_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serge\PycharmProjects\docxy\import_fld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serge\PycharmProjects\docxy2\import_fld\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,153 +24,555 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>full name</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>adress</t>
-  </si>
-  <si>
-    <t>3500 Deer Creek Rd, Palo Alto, CA 94304, USA</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>info@tesla.com</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Palo Alto</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Tim Cook</t>
-  </si>
-  <si>
-    <t>1 Apple Park Way, Cupertino, CA 95014, USA</t>
-  </si>
-  <si>
-    <t>contact@apple.com</t>
-  </si>
-  <si>
-    <t>Bank of America</t>
-  </si>
-  <si>
-    <t>Cupertino</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Sundar Pichai</t>
-  </si>
-  <si>
-    <t>1600 Amphitheatre Parkway, Mountain View, CA 94043, USA</t>
-  </si>
-  <si>
-    <t>support@google.com</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>Mountain View</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Satya Nadella</t>
-  </si>
-  <si>
-    <t>1 Microsoft Way, Redmond, WA 98052, USA</t>
-  </si>
-  <si>
-    <t>info@microsoft.com</t>
-  </si>
-  <si>
-    <t>Citibank</t>
-  </si>
-  <si>
-    <t>Redmond</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>410 Terry Ave N, Seattle, WA 98109, USA</t>
-  </si>
-  <si>
-    <t>support@amazon.com</t>
-  </si>
-  <si>
-    <t>Chase Bank</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>1 Hacker Way, Menlo Park, CA 94025, USA</t>
-  </si>
-  <si>
-    <t>info@facebook.com</t>
-  </si>
-  <si>
-    <t>HSBC</t>
-  </si>
-  <si>
-    <t>Menlo Park</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Reed Hastings</t>
-  </si>
-  <si>
-    <t>100 Winchester Circle, Los Gatos, CA 95032, USA</t>
-  </si>
-  <si>
-    <t>contact@netflix.com</t>
-  </si>
-  <si>
-    <t>Goldman Sachs</t>
-  </si>
-  <si>
-    <t>Los Gatos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="183">
+  <si>
+    <t>admission_date</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>admission_details</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>care_provided_interventions1</t>
+  </si>
+  <si>
+    <t>care_provided_interventions2</t>
+  </si>
+  <si>
+    <t>care_provided_interventions3</t>
+  </si>
+  <si>
+    <t>care_provided_interventions4</t>
+  </si>
+  <si>
+    <t>care_provided_interventions5</t>
+  </si>
+  <si>
+    <t>care_provided_notes</t>
+  </si>
+  <si>
+    <t>care_provided_rationale1</t>
+  </si>
+  <si>
+    <t>care_provided_rationale2</t>
+  </si>
+  <si>
+    <t>care_provided_rationale3</t>
+  </si>
+  <si>
+    <t>care_provided_rationale4</t>
+  </si>
+  <si>
+    <t>care_provided_rationale5</t>
+  </si>
+  <si>
+    <t>care_provided_time1</t>
+  </si>
+  <si>
+    <t>care_provided_time2</t>
+  </si>
+  <si>
+    <t>care_provided_time3</t>
+  </si>
+  <si>
+    <t>care_provided_time4</t>
+  </si>
+  <si>
+    <t>care_provided_time5</t>
+  </si>
+  <si>
+    <t>dar_sbar_soapie_apie</t>
+  </si>
+  <si>
+    <t>diabetic</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>drug_considerations1</t>
+  </si>
+  <si>
+    <t>drug_considerations2</t>
+  </si>
+  <si>
+    <t>drug_considerations3</t>
+  </si>
+  <si>
+    <t>drug_considerations4</t>
+  </si>
+  <si>
+    <t>drug_considerations5</t>
+  </si>
+  <si>
+    <t>drug_considerations6</t>
+  </si>
+  <si>
+    <t>drug_considerations7</t>
+  </si>
+  <si>
+    <t>drug_considerations8</t>
+  </si>
+  <si>
+    <t>drug_dose1</t>
+  </si>
+  <si>
+    <t>drug_dose2</t>
+  </si>
+  <si>
+    <t>drug_dose3</t>
+  </si>
+  <si>
+    <t>drug_dose4</t>
+  </si>
+  <si>
+    <t>drug_dose5</t>
+  </si>
+  <si>
+    <t>drug_dose6</t>
+  </si>
+  <si>
+    <t>drug_dose7</t>
+  </si>
+  <si>
+    <t>drug_dose8</t>
+  </si>
+  <si>
+    <t>drug_frequency1</t>
+  </si>
+  <si>
+    <t>drug_frequency2</t>
+  </si>
+  <si>
+    <t>drug_frequency3</t>
+  </si>
+  <si>
+    <t>drug_frequency4</t>
+  </si>
+  <si>
+    <t>drug_frequency5</t>
+  </si>
+  <si>
+    <t>drug_frequency6</t>
+  </si>
+  <si>
+    <t>drug_frequency7</t>
+  </si>
+  <si>
+    <t>drug_frequency8</t>
+  </si>
+  <si>
+    <t>drug_name1</t>
+  </si>
+  <si>
+    <t>drug_name2</t>
+  </si>
+  <si>
+    <t>drug_name3</t>
+  </si>
+  <si>
+    <t>drug_name4</t>
+  </si>
+  <si>
+    <t>drug_name5</t>
+  </si>
+  <si>
+    <t>drug_name6</t>
+  </si>
+  <si>
+    <t>drug_name7</t>
+  </si>
+  <si>
+    <t>drug_name8</t>
+  </si>
+  <si>
+    <t>drug_route1</t>
+  </si>
+  <si>
+    <t>drug_route2</t>
+  </si>
+  <si>
+    <t>drug_route3</t>
+  </si>
+  <si>
+    <t>drug_route4</t>
+  </si>
+  <si>
+    <t>drug_route5</t>
+  </si>
+  <si>
+    <t>drug_route6</t>
+  </si>
+  <si>
+    <t>drug_route7</t>
+  </si>
+  <si>
+    <t>drug_route8</t>
+  </si>
+  <si>
+    <t>drug_time1</t>
+  </si>
+  <si>
+    <t>drug_time2</t>
+  </si>
+  <si>
+    <t>drug_time3</t>
+  </si>
+  <si>
+    <t>drug_time4</t>
+  </si>
+  <si>
+    <t>drug_time5</t>
+  </si>
+  <si>
+    <t>drug_time6</t>
+  </si>
+  <si>
+    <t>drug_time7</t>
+  </si>
+  <si>
+    <t>drug_time8</t>
+  </si>
+  <si>
+    <t>fluid balance</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>hta_cardiovascular</t>
+  </si>
+  <si>
+    <t>hta_gastrointestinal</t>
+  </si>
+  <si>
+    <t>hta_general</t>
+  </si>
+  <si>
+    <t>hta_genitourinary</t>
+  </si>
+  <si>
+    <t>hta_integumentary</t>
+  </si>
+  <si>
+    <t>hta_muscoskeletal</t>
+  </si>
+  <si>
+    <t>hta_neurological</t>
+  </si>
+  <si>
+    <t>hta_respiratory</t>
+  </si>
+  <si>
+    <t>intake</t>
+  </si>
+  <si>
+    <t>iv_rate</t>
+  </si>
+  <si>
+    <t>iv_solution</t>
+  </si>
+  <si>
+    <t>iv_tpn_lipids_tna</t>
+  </si>
+  <si>
+    <t>lab_albumin</t>
+  </si>
+  <si>
+    <t>lab_calcium</t>
+  </si>
+  <si>
+    <t>lab_clorum</t>
+  </si>
+  <si>
+    <t>lab_cr</t>
+  </si>
+  <si>
+    <t>lab_creat</t>
+  </si>
+  <si>
+    <t>lab_cultures</t>
+  </si>
+  <si>
+    <t>lab_diabetic_monitoring</t>
+  </si>
+  <si>
+    <t>lab_glucose</t>
+  </si>
+  <si>
+    <t>lab_hemaglobin</t>
+  </si>
+  <si>
+    <t>lab_hematocrit</t>
+  </si>
+  <si>
+    <t>lab_inr</t>
+  </si>
+  <si>
+    <t>lab_mg</t>
+  </si>
+  <si>
+    <t>lab_natrium</t>
+  </si>
+  <si>
+    <t>lab_platlets</t>
+  </si>
+  <si>
+    <t>lab_potassium</t>
+  </si>
+  <si>
+    <t>lab_ptt</t>
+  </si>
+  <si>
+    <t>lab_urea</t>
+  </si>
+  <si>
+    <t>lab_urine_analysis</t>
+  </si>
+  <si>
+    <t>lab_wbc</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>ngtube_amount</t>
+  </si>
+  <si>
+    <t>ngtube_date_inserted</t>
+  </si>
+  <si>
+    <t>ngtube_flushes</t>
+  </si>
+  <si>
+    <t>ngtube_formula</t>
+  </si>
+  <si>
+    <t>ngtube_length</t>
+  </si>
+  <si>
+    <t>ngtube_rate</t>
+  </si>
+  <si>
+    <t>ngtube_site</t>
+  </si>
+  <si>
+    <t>ngtube_size</t>
+  </si>
+  <si>
+    <t>o2_at</t>
+  </si>
+  <si>
+    <t>o2_delivery_type</t>
+  </si>
+  <si>
+    <t>o2_last_checked</t>
+  </si>
+  <si>
+    <t>o2_liters_per_min</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>past_history</t>
+  </si>
+  <si>
+    <t>permanent_info</t>
+  </si>
+  <si>
+    <t>primary_nurse</t>
+  </si>
+  <si>
+    <t>problem_assessment1</t>
+  </si>
+  <si>
+    <t>problem_assessment2</t>
+  </si>
+  <si>
+    <t>problem_assessment3</t>
+  </si>
+  <si>
+    <t>problem_assessment4</t>
+  </si>
+  <si>
+    <t>problem_assessment5</t>
+  </si>
+  <si>
+    <t>problem_assessment6</t>
+  </si>
+  <si>
+    <t>problem_interventions1</t>
+  </si>
+  <si>
+    <t>problem_interventions2</t>
+  </si>
+  <si>
+    <t>problem_interventions3</t>
+  </si>
+  <si>
+    <t>problem_interventions4</t>
+  </si>
+  <si>
+    <t>problem_interventions5</t>
+  </si>
+  <si>
+    <t>problem_interventions6</t>
+  </si>
+  <si>
+    <t>problem_rationale1</t>
+  </si>
+  <si>
+    <t>problem_rationale2</t>
+  </si>
+  <si>
+    <t>problem_rationale3</t>
+  </si>
+  <si>
+    <t>problem_rationale4</t>
+  </si>
+  <si>
+    <t>problem_rationale5</t>
+  </si>
+  <si>
+    <t>problem_rationale6</t>
+  </si>
+  <si>
+    <t>selfcare_diet</t>
+  </si>
+  <si>
+    <t>selfcare_hygiene</t>
+  </si>
+  <si>
+    <t>selfcare_lastbm</t>
+  </si>
+  <si>
+    <t>selfcare_nporeason</t>
+  </si>
+  <si>
+    <t>selfcare_stool_description</t>
+  </si>
+  <si>
+    <t>selfcare_transfer</t>
+  </si>
+  <si>
+    <t>selfcare_urine_description</t>
+  </si>
+  <si>
+    <t>today_tag</t>
+  </si>
+  <si>
+    <t>vs_bp1</t>
+  </si>
+  <si>
+    <t>vs_bp2</t>
+  </si>
+  <si>
+    <t>vs_bp3</t>
+  </si>
+  <si>
+    <t>vs_hr1</t>
+  </si>
+  <si>
+    <t>vs_hr2</t>
+  </si>
+  <si>
+    <t>vs_hr3</t>
+  </si>
+  <si>
+    <t>vs_nursingintervention</t>
+  </si>
+  <si>
+    <t>vs_o2therapy1</t>
+  </si>
+  <si>
+    <t>vs_o2therapy2</t>
+  </si>
+  <si>
+    <t>vs_o2therapy3</t>
+  </si>
+  <si>
+    <t>vs_oxygen1</t>
+  </si>
+  <si>
+    <t>vs_oxygen2</t>
+  </si>
+  <si>
+    <t>vs_oxygen3</t>
+  </si>
+  <si>
+    <t>vs_pain1</t>
+  </si>
+  <si>
+    <t>vs_pain2</t>
+  </si>
+  <si>
+    <t>vs_pain3</t>
+  </si>
+  <si>
+    <t>vs_pqrst1</t>
+  </si>
+  <si>
+    <t>vs_pqrst2</t>
+  </si>
+  <si>
+    <t>vs_pqrst3</t>
+  </si>
+  <si>
+    <t>vs_roomair1</t>
+  </si>
+  <si>
+    <t>vs_roomair2</t>
+  </si>
+  <si>
+    <t>vs_roomair3</t>
+  </si>
+  <si>
+    <t>vs_rr1</t>
+  </si>
+  <si>
+    <t>vs_rr2</t>
+  </si>
+  <si>
+    <t>vs_rr3</t>
+  </si>
+  <si>
+    <t>vs_temp1</t>
+  </si>
+  <si>
+    <t>vs_temp2</t>
+  </si>
+  <si>
+    <t>vs_temp3</t>
+  </si>
+  <si>
+    <t>vs_time1</t>
+  </si>
+  <si>
+    <t>vs_time2</t>
+  </si>
+  <si>
+    <t>vs_time3</t>
+  </si>
+  <si>
+    <t>wound_dressing</t>
+  </si>
+  <si>
+    <t>wound_frequency</t>
+  </si>
+  <si>
+    <t>wound_location</t>
+  </si>
+  <si>
+    <t>wound_stage</t>
   </si>
 </sst>
 </file>
@@ -489,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C42"/>
+      <selection sqref="A1:C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,357 +907,1456 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>7</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>7</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>9</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>11</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>5</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>7</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>9</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>11</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>3</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>7</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>9</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>11</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
